--- a/healthman-mock/v2/data/classes/机械工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/机械工程学院.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -452,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>录入年份</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>年级</t>
+          <t>教师工号</t>
         </is>
       </c>
     </row>
@@ -477,12 +476,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2019</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000420</t>
         </is>
       </c>
     </row>
@@ -502,12 +503,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2019</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000250</t>
         </is>
       </c>
     </row>
@@ -527,12 +530,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2019</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000581</t>
         </is>
       </c>
     </row>
@@ -552,12 +557,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2019</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000617</t>
         </is>
       </c>
     </row>
@@ -577,12 +584,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2019</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000201</t>
         </is>
       </c>
     </row>
@@ -602,12 +611,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2019</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000589</t>
         </is>
       </c>
     </row>
@@ -627,12 +638,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2019</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000185</t>
         </is>
       </c>
     </row>
@@ -652,12 +665,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2019</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000449</t>
         </is>
       </c>
     </row>
@@ -677,12 +692,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2019</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000918</t>
         </is>
       </c>
     </row>
@@ -702,12 +719,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2019</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000355</t>
         </is>
       </c>
     </row>
@@ -727,12 +746,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2019</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000958</t>
         </is>
       </c>
     </row>
@@ -752,12 +773,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2019</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000625</t>
         </is>
       </c>
     </row>
@@ -777,12 +800,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2019</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000600</t>
         </is>
       </c>
     </row>
@@ -802,12 +827,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2019</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000767</t>
         </is>
       </c>
     </row>
@@ -827,12 +854,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2019</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000211</t>
         </is>
       </c>
     </row>
@@ -852,12 +881,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2019</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000231</t>
         </is>
       </c>
     </row>
@@ -877,12 +908,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2019</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000883</t>
         </is>
       </c>
     </row>
@@ -902,12 +935,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2019</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000195</t>
         </is>
       </c>
     </row>
@@ -927,12 +962,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2019</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000071</t>
         </is>
       </c>
     </row>
@@ -952,12 +989,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2019</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000145</t>
         </is>
       </c>
     </row>
@@ -977,12 +1016,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2019</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000581</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1043,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2019</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000625</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1070,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2019</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000462</t>
         </is>
       </c>
     </row>
@@ -1052,12 +1097,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2019</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000859</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1124,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2019</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000563</t>
         </is>
       </c>
     </row>
@@ -1102,12 +1151,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2019</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000953</t>
         </is>
       </c>
     </row>
@@ -1127,12 +1178,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2019</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000931</t>
         </is>
       </c>
     </row>
@@ -1152,12 +1205,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>2019</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000701</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1232,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2019</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001026</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1259,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2019</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000501</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1286,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2019</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000748</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1313,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2019</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000816</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1340,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>2019</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000679</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1367,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2019</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000767</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1394,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2019</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000991</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1421,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2019</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1448,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2019</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000207</t>
         </is>
       </c>
     </row>
@@ -1402,12 +1475,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2019</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000446</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1502,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2019</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000987</t>
         </is>
       </c>
     </row>
@@ -1452,12 +1529,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2019</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000985</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1556,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2019</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000160</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1583,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2019</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000249</t>
         </is>
       </c>
     </row>
@@ -1527,12 +1610,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2019</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000007</t>
         </is>
       </c>
     </row>
@@ -1552,12 +1637,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2019</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000649</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1664,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2019</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000806</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1691,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2020</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000109</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1718,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2020</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000168</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1745,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2020</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000902</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1772,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2020</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000481</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1799,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2020</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000354</t>
         </is>
       </c>
     </row>
@@ -1727,12 +1826,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2020</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000974</t>
         </is>
       </c>
     </row>
@@ -1752,12 +1853,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>2020</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000731</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1880,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>2020</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000594</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1907,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>2020</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000126</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1934,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>2020</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000586</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1961,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>2020</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000866</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1988,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>2020</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000797</t>
         </is>
       </c>
     </row>
@@ -1902,12 +2015,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>2020</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000035</t>
         </is>
       </c>
     </row>
@@ -1927,12 +2042,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2020</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001010</t>
         </is>
       </c>
     </row>
@@ -1952,12 +2069,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>2020</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000013</t>
         </is>
       </c>
     </row>
@@ -1977,12 +2096,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>2020</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000661</t>
         </is>
       </c>
     </row>
@@ -2002,12 +2123,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2020</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000350</t>
         </is>
       </c>
     </row>
@@ -2027,12 +2150,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>2020</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000614</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2177,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2020</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000501</t>
         </is>
       </c>
     </row>
@@ -2077,12 +2204,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2020</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000843</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2231,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>2020</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000349</t>
         </is>
       </c>
     </row>
@@ -2127,12 +2258,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>2020</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000428</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2285,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>2020</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001020</t>
         </is>
       </c>
     </row>
@@ -2177,12 +2312,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>2020</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000415</t>
         </is>
       </c>
     </row>
@@ -2202,12 +2339,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>2020</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000627</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2366,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>2020</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000915</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2393,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>2020</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000928</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2420,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>2020</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000952</t>
         </is>
       </c>
     </row>
@@ -2302,12 +2447,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>2020</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000186</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2474,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>2020</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000869</t>
         </is>
       </c>
     </row>
@@ -2352,12 +2501,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>2020</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000526</t>
         </is>
       </c>
     </row>
@@ -2377,12 +2528,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>2020</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000930</t>
         </is>
       </c>
     </row>
@@ -2402,12 +2555,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>2020</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000755</t>
         </is>
       </c>
     </row>
@@ -2427,12 +2582,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>2020</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -2452,12 +2609,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>2020</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000793</t>
         </is>
       </c>
     </row>
@@ -2477,12 +2636,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>2020</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000258</t>
         </is>
       </c>
     </row>
@@ -2502,12 +2663,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2020</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000408</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2690,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>2020</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000433</t>
         </is>
       </c>
     </row>
@@ -2552,12 +2717,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2020</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000731</t>
         </is>
       </c>
     </row>
@@ -2577,12 +2744,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2020</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000423</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2771,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>2020</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000683</t>
         </is>
       </c>
     </row>
@@ -2627,12 +2798,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>2020</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000968</t>
         </is>
       </c>
     </row>
@@ -2652,12 +2825,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>2020</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000395</t>
         </is>
       </c>
     </row>
@@ -2677,12 +2852,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>2021</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000153</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2879,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>2021</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000651</t>
         </is>
       </c>
     </row>
@@ -2727,12 +2906,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>2021</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000597</t>
         </is>
       </c>
     </row>
@@ -2752,12 +2933,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>2021</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000846</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2960,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>2021</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000536</t>
         </is>
       </c>
     </row>
@@ -2802,12 +2987,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>2021</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000289</t>
         </is>
       </c>
     </row>
@@ -2827,12 +3014,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>2021</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000276</t>
         </is>
       </c>
     </row>
@@ -2852,12 +3041,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>2021</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>001005</t>
         </is>
       </c>
     </row>
@@ -2877,12 +3068,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>2021</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000071</t>
         </is>
       </c>
     </row>
@@ -2902,12 +3095,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>2021</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000001</t>
         </is>
       </c>
     </row>
@@ -2927,12 +3122,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>2021</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000382</t>
         </is>
       </c>
     </row>
@@ -2952,12 +3149,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>2021</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000386</t>
         </is>
       </c>
     </row>
@@ -2977,12 +3176,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>2021</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000143</t>
         </is>
       </c>
     </row>
@@ -3002,12 +3203,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>2021</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000872</t>
         </is>
       </c>
     </row>
@@ -3027,12 +3230,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>2021</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000411</t>
         </is>
       </c>
     </row>
@@ -3052,12 +3257,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>2021</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -3077,12 +3284,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>2021</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000525</t>
         </is>
       </c>
     </row>
@@ -3102,12 +3311,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>2021</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000629</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3338,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>2021</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000123</t>
         </is>
       </c>
     </row>
@@ -3152,12 +3365,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>2021</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000421</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3392,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>2021</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000697</t>
         </is>
       </c>
     </row>
@@ -3202,12 +3419,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>2021</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000716</t>
         </is>
       </c>
     </row>
@@ -3227,12 +3446,14 @@
           <t>机械工程学院</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>2021</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>大一</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>大一</t>
+          <t>000754</t>
         </is>
       </c>
     </row>

--- a/healthman-mock/v2/data/classes/机械工程学院.xlsx
+++ b/healthman-mock/v2/data/classes/机械工程学院.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -483,7 +484,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>000420</t>
+          <t>000101</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>000250</t>
+          <t>000222</t>
         </is>
       </c>
     </row>
@@ -537,7 +538,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>000581</t>
+          <t>000073</t>
         </is>
       </c>
     </row>
@@ -564,7 +565,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>000617</t>
+          <t>000148</t>
         </is>
       </c>
     </row>
@@ -591,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>000201</t>
+          <t>000171</t>
         </is>
       </c>
     </row>
@@ -618,7 +619,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>000589</t>
+          <t>000224</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>000185</t>
+          <t>000194</t>
         </is>
       </c>
     </row>
@@ -672,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>000449</t>
+          <t>000058</t>
         </is>
       </c>
     </row>
@@ -699,7 +700,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>000918</t>
+          <t>000062</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>000355</t>
+          <t>000203</t>
         </is>
       </c>
     </row>
@@ -753,7 +754,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000958</t>
+          <t>000107</t>
         </is>
       </c>
     </row>
@@ -780,7 +781,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000625</t>
+          <t>000055</t>
         </is>
       </c>
     </row>
@@ -807,7 +808,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>000600</t>
+          <t>000029</t>
         </is>
       </c>
     </row>
@@ -834,7 +835,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>000041</t>
         </is>
       </c>
     </row>
@@ -861,7 +862,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>000211</t>
+          <t>000202</t>
         </is>
       </c>
     </row>
@@ -888,7 +889,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>000231</t>
+          <t>000066</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>000883</t>
+          <t>000062</t>
         </is>
       </c>
     </row>
@@ -942,7 +943,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>000195</t>
+          <t>000094</t>
         </is>
       </c>
     </row>
@@ -969,7 +970,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>000071</t>
+          <t>000155</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>000145</t>
+          <t>000011</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>000581</t>
+          <t>000078</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1051,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>000625</t>
+          <t>000094</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>000859</t>
+          <t>000135</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1132,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>000563</t>
+          <t>000225</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>000953</t>
+          <t>000048</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>000931</t>
+          <t>000204</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>000701</t>
+          <t>000185</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1240,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>001026</t>
+          <t>000102</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>000501</t>
+          <t>000134</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>000748</t>
+          <t>000005</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1321,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>000816</t>
+          <t>000093</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1348,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>000087</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1375,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>000767</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1402,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>000194</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1429,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>000020</t>
+          <t>000143</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>000207</t>
+          <t>000208</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1483,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>000446</t>
+          <t>000070</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1510,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>000987</t>
+          <t>000037</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>000985</t>
+          <t>000113</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1564,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>000160</t>
+          <t>000133</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1591,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>000249</t>
+          <t>000194</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1618,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>000007</t>
+          <t>000187</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1645,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>000649</t>
+          <t>000210</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1672,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>000806</t>
+          <t>000108</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1699,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>000109</t>
+          <t>000111</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1726,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>000168</t>
+          <t>000085</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1753,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>000902</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1780,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>000481</t>
+          <t>000158</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>000047</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1834,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>000974</t>
+          <t>000099</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>000731</t>
+          <t>000020</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1888,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>000005</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1915,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>000126</t>
+          <t>000054</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1969,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>000031</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>000797</t>
+          <t>000063</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2023,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>000035</t>
+          <t>000163</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2050,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>000048</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>000013</t>
+          <t>000174</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2104,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>000661</t>
+          <t>000183</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2131,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>000350</t>
+          <t>000041</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>000614</t>
+          <t>000100</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2185,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>000501</t>
+          <t>000046</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2212,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>000843</t>
+          <t>000230</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2239,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>000349</t>
+          <t>000029</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2266,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>000428</t>
+          <t>000138</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2293,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>001020</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2320,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>000415</t>
+          <t>000175</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>000627</t>
+          <t>000197</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2374,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>000915</t>
+          <t>000083</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2401,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>000928</t>
+          <t>000122</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>000154</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2455,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>000186</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2482,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>000869</t>
+          <t>000186</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2509,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>000526</t>
+          <t>000153</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>000930</t>
+          <t>000057</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2563,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>000755</t>
+          <t>000178</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2590,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>000108</t>
+          <t>000098</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>000025</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>000258</t>
+          <t>000028</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2671,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>000408</t>
+          <t>000111</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2698,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>000080</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2725,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>000731</t>
+          <t>000074</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2752,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>000423</t>
+          <t>000029</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2779,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>000683</t>
+          <t>000194</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2806,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>000968</t>
+          <t>000019</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2833,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>000395</t>
+          <t>000189</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2860,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>000153</t>
+          <t>000189</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>000651</t>
+          <t>000050</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2914,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>000597</t>
+          <t>000066</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2941,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>000846</t>
+          <t>000178</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2968,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>000536</t>
+          <t>000025</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2995,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>000289</t>
+          <t>000022</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3022,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>000276</t>
+          <t>000001</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3049,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>001005</t>
+          <t>000190</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3076,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>000071</t>
+          <t>000079</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3103,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>000037</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>000382</t>
+          <t>000161</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>000386</t>
+          <t>000071</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3184,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>000143</t>
+          <t>000013</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3211,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>000872</t>
+          <t>000099</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3238,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>000411</t>
+          <t>000190</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3265,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>000175</t>
+          <t>000019</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3292,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>000525</t>
+          <t>000209</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3319,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>000629</t>
+          <t>000184</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>000123</t>
+          <t>000193</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3373,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>000421</t>
+          <t>000206</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3400,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>000697</t>
+          <t>000117</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>000716</t>
+          <t>000203</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3454,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>000754</t>
+          <t>000031</t>
         </is>
       </c>
     </row>
